--- a/data/trans_dic/Q17F_D_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1131874218064328</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2060511625382198</v>
+        <v>0.2060511625382197</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1002223737697277</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09193269793100885</v>
+        <v>0.0921958759830719</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09998120452533889</v>
+        <v>0.09676032788378505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08570306161583155</v>
+        <v>0.0859711742094757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1226620218180297</v>
+        <v>0.1254222868783581</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0596442081600712</v>
+        <v>0.06250111175572837</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06038638982631454</v>
+        <v>0.06071375548950873</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08249742571593267</v>
+        <v>0.08376331528165661</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1667991271656867</v>
+        <v>0.1667295089616271</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08114317366946193</v>
+        <v>0.08008494994748175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08253223761748862</v>
+        <v>0.08187611794017113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09267717782175534</v>
+        <v>0.09359714759839767</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1669281980218526</v>
+        <v>0.1626248270172921</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1708296494239475</v>
+        <v>0.1652497132115991</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1798468851356295</v>
+        <v>0.1771138021436748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1676596296041263</v>
+        <v>0.1673520716696252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2468958301888947</v>
+        <v>0.2464839950518262</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.112771414334287</v>
+        <v>0.1130021969149752</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1084706426438159</v>
+        <v>0.1103145744502142</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1498135688229226</v>
+        <v>0.1497768443393115</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2482723375872235</v>
+        <v>0.2528113511192551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1215373635318152</v>
+        <v>0.1225646102181934</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.124441533878261</v>
+        <v>0.1245641491637742</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1438844733600042</v>
+        <v>0.1455108372836215</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2338208975892944</v>
+        <v>0.2321773216422406</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07418317487044758</v>
+        <v>0.07555221021960989</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07856194680004028</v>
+        <v>0.08022600877393943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06829384397596634</v>
+        <v>0.0725554744896678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1291846740673282</v>
+        <v>0.1335100823997837</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09824784087020881</v>
+        <v>0.09699276188466199</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1020155092147161</v>
+        <v>0.09955394212284477</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1082253023318244</v>
+        <v>0.1087761660109324</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.183066860175799</v>
+        <v>0.1818503044780572</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09697609774931641</v>
+        <v>0.09686509395482963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09926497563365994</v>
+        <v>0.1002189598176063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09936542785566969</v>
+        <v>0.09844007383058213</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1687751094699321</v>
+        <v>0.1665146285013475</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1522702682076519</v>
+        <v>0.1549755069684745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1465425213802946</v>
+        <v>0.1480495237089898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1293710300094696</v>
+        <v>0.1313544527156167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2058215332930326</v>
+        <v>0.20780868014466</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.168150722554353</v>
+        <v>0.1698633829748519</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.165594887841759</v>
+        <v>0.1595747123988772</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1669897018680626</v>
+        <v>0.1684358298524857</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2509642834660152</v>
+        <v>0.2508396426948972</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1505617372729351</v>
+        <v>0.1518549380121867</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1461832124478427</v>
+        <v>0.1457121937377866</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1415728644946425</v>
+        <v>0.1426303169808243</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2196371257140351</v>
+        <v>0.2211144034381732</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06925138918778521</v>
+        <v>0.06569454284877013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08900981929250264</v>
+        <v>0.08158630292060204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06651823045093778</v>
+        <v>0.06566085789305069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1656198540644695</v>
+        <v>0.1692566478984823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07605433378491543</v>
+        <v>0.07501971500659656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05895488928716146</v>
+        <v>0.06197182421602931</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0691132333156847</v>
+        <v>0.07242147519759266</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1261595320911817</v>
+        <v>0.1213294744517265</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08693074620642689</v>
+        <v>0.09160142653374533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08263622981781346</v>
+        <v>0.08634658697720324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08644125305054673</v>
+        <v>0.08615341263997249</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1593932122990434</v>
+        <v>0.158202250975388</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2779422118052188</v>
+        <v>0.2630759276456575</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2953635423304697</v>
+        <v>0.2837409090936736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2083943735956465</v>
+        <v>0.2051544295414121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3237535218159616</v>
+        <v>0.3336371533834808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2024526499339461</v>
+        <v>0.1994826843627747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1820219469448114</v>
+        <v>0.1815805973821458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2011976227271519</v>
+        <v>0.1996642203379006</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2226091709188109</v>
+        <v>0.2287920750256345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2004908463243755</v>
+        <v>0.2020401728388555</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2026808709405251</v>
+        <v>0.196038269728711</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1807246196732309</v>
+        <v>0.181111639018551</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2457783192211391</v>
+        <v>0.2461660650495956</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1024391633057432</v>
+        <v>0.1020745488370299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08716995752837123</v>
+        <v>0.08966845133022477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1555324501305123</v>
+        <v>0.1573575425571639</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08702277976897098</v>
+        <v>0.08716500767314964</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1049891548278722</v>
+        <v>0.1048516987432007</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1826956628748511</v>
+        <v>0.1826152018047544</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09844199215788406</v>
+        <v>0.09607707928886849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1048881250845964</v>
+        <v>0.1019646863541144</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1760639986920041</v>
+        <v>0.1774328105710765</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1536969236373087</v>
+        <v>0.1550743399689759</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1354658316361644</v>
+        <v>0.1339158775912155</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2174529501012691</v>
+        <v>0.2177203906201817</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1242285030968434</v>
+        <v>0.1254006614816072</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1470351415975437</v>
+        <v>0.1461015199813402</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2297036584370901</v>
+        <v>0.2288120716336453</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1282566866289088</v>
+        <v>0.1276314219758356</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.135731105299995</v>
+        <v>0.1341530422886717</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2151636150026209</v>
+        <v>0.2168285175351411</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27531</v>
+        <v>27610</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32702</v>
+        <v>31648</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21163</v>
+        <v>21229</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16800</v>
+        <v>17178</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29359</v>
+        <v>30765</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31848</v>
+        <v>32021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33267</v>
+        <v>33777</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39489</v>
+        <v>39472</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>64242</v>
+        <v>63404</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>70523</v>
+        <v>69962</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>60257</v>
+        <v>60855</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>62382</v>
+        <v>60774</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51159</v>
+        <v>49488</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58824</v>
+        <v>57930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41400</v>
+        <v>41324</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33816</v>
+        <v>33759</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>55510</v>
+        <v>55624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>57208</v>
+        <v>58181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60412</v>
+        <v>60397</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58777</v>
+        <v>59851</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>96223</v>
+        <v>97036</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>106333</v>
+        <v>106438</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>93551</v>
+        <v>94608</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>87380</v>
+        <v>86766</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17535</v>
+        <v>17858</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26953</v>
+        <v>27524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30687</v>
+        <v>32602</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48860</v>
+        <v>50496</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36044</v>
+        <v>35584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48445</v>
+        <v>47276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61180</v>
+        <v>61492</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>85534</v>
+        <v>84966</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58500</v>
+        <v>58433</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>81194</v>
+        <v>81975</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>100820</v>
+        <v>99881</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>142690</v>
+        <v>140779</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35992</v>
+        <v>36632</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50275</v>
+        <v>50792</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58131</v>
+        <v>59022</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77845</v>
+        <v>78597</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61689</v>
+        <v>62318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>78638</v>
+        <v>75779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>94400</v>
+        <v>95218</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117258</v>
+        <v>117200</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90825</v>
+        <v>91605</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>119572</v>
+        <v>119186</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>143646</v>
+        <v>144719</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>185691</v>
+        <v>186940</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4795</v>
+        <v>4549</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6658</v>
+        <v>6102</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7632</v>
+        <v>7534</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22468</v>
+        <v>22961</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8303</v>
+        <v>8190</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6176</v>
+        <v>6492</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9104</v>
+        <v>9540</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21064</v>
+        <v>20257</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15510</v>
+        <v>16343</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14838</v>
+        <v>15504</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21305</v>
+        <v>21234</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48235</v>
+        <v>47875</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19244</v>
+        <v>18215</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22093</v>
+        <v>21223</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23911</v>
+        <v>23539</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43920</v>
+        <v>45261</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22103</v>
+        <v>21779</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19069</v>
+        <v>19022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26503</v>
+        <v>26301</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37167</v>
+        <v>38199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35770</v>
+        <v>36047</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36393</v>
+        <v>35200</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44542</v>
+        <v>44637</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>74377</v>
+        <v>74494</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>76312</v>
+        <v>76041</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70695</v>
+        <v>72722</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101226</v>
+        <v>102414</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>96338</v>
+        <v>96496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>115517</v>
+        <v>115366</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>159116</v>
+        <v>159046</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>182315</v>
+        <v>177935</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>200471</v>
+        <v>194884</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>267929</v>
+        <v>270012</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>114497</v>
+        <v>115523</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>109864</v>
+        <v>108607</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>141526</v>
+        <v>141700</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>137527</v>
+        <v>138824</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>161780</v>
+        <v>160752</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>200057</v>
+        <v>199280</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>237531</v>
+        <v>236373</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>259421</v>
+        <v>256405</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>327430</v>
+        <v>329963</v>
       </c>
     </row>
     <row r="20">
